--- a/biology/Zoologie/Ichtyophthiriose/Ichtyophthiriose.xlsx
+++ b/biology/Zoologie/Ichtyophthiriose/Ichtyophthiriose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladie des points blancs
 L’Ichtyophthiriose ou maladie des points blancs est l'une des maladies les plus communes en aquarium. Elle est provoquée par le parasite Ichthyophthirius multifiliis, mais elle est en plus catastrophique pour les beaux spécimens dont la nageoire caudale est le plus souvent détériorée par l'apparition de ces « points blancs ».
@@ -513,9 +525,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une augmentation de la température permet d'accélérer le cycle du parasite, et rend donc le traitement plus efficace. De nombreux traitements sont efficaces quand la maladie est prise à temps. Par exemple le Morenicol FMC-50, le vert de malachite, le bleu de méthylène, etc. donnent de bons résultats[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une augmentation de la température permet d'accélérer le cycle du parasite, et rend donc le traitement plus efficace. De nombreux traitements sont efficaces quand la maladie est prise à temps. Par exemple le Morenicol FMC-50, le vert de malachite, le bleu de méthylène, etc. donnent de bons résultats.
 </t>
         </is>
       </c>
